--- a/RUDN/Importance/Varible_muatal_reg_in_Australia and New Zealand.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Australia and New Zealand.xlsx
@@ -37,12 +37,12 @@
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
@@ -55,21 +55,21 @@
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
@@ -100,15 +100,15 @@
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
@@ -154,43 +154,46 @@
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
     <t>GNI, Atlas method (current US$)</t>
@@ -217,48 +220,51 @@
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
@@ -274,78 +280,72 @@
     <t>Rural population (% of total population)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
@@ -358,138 +358,147 @@
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
     <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
@@ -502,9 +511,6 @@
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
@@ -514,21 +520,18 @@
     <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
-    <t>Employers, male (% of male employment)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
@@ -538,22 +541,22 @@
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
+    <t>Self-employed, total (% of total employment)</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
@@ -562,6 +565,9 @@
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
@@ -574,126 +580,123 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
   </si>
   <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
@@ -703,51 +706,48 @@
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
@@ -784,75 +784,75 @@
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
     <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
   </si>
   <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
     <t>Labor force, total</t>
   </si>
   <si>
@@ -889,12 +889,12 @@
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
     <t>Female population 20-24</t>
   </si>
   <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
@@ -910,10 +910,13 @@
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 15-64, female</t>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>Net ODA provided, total (% of GNI)</t>
@@ -928,267 +931,264 @@
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
     <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
@@ -1201,15 +1201,15 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
@@ -1219,16 +1219,25 @@
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
     <t>Time-related underemployment, male (% of employment)</t>
@@ -1240,46 +1249,37 @@
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
   <si>
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
   </si>
   <si>
     <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
-  </si>
-  <si>
-    <t>Region_code</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.397368434163763</v>
+        <v>1.403778690574019</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.286745723541052</v>
+        <v>1.293155979951309</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1701,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.168110192405522</v>
+        <v>1.161699935995265</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.065577575449827</v>
+        <v>1.07839808827034</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.057184457130238</v>
+        <v>1.070004969950751</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.013928263223592</v>
+        <v>1.026367213162542</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.013546700342029</v>
+        <v>1.013928263223592</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9107994475947767</v>
+        <v>0.9275119018072306</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9097310715264002</v>
+        <v>0.9024050642003929</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.897292121587451</v>
+        <v>0.8994288737242027</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8833102701055988</v>
+        <v>0.8736948854902142</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8436416054369342</v>
+        <v>0.8457644825598118</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8428493421446714</v>
+        <v>0.8436416054369342</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8380721748675044</v>
+        <v>0.8428493421446714</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.81308839796065</v>
+        <v>0.8207807056529575</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7983910226863515</v>
+        <v>0.812493586788916</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7690976744003861</v>
+        <v>0.7725775278802396</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7513945441972558</v>
+        <v>0.7656802584829703</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7067544541267057</v>
+        <v>0.6985394853348141</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.706231793027122</v>
+        <v>0.6948093322551139</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6948093322551139</v>
+        <v>0.6879801728524244</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6879801728524244</v>
+        <v>0.6843350842808655</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6671482270204785</v>
+        <v>0.6811134284856801</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6646132619855143</v>
+        <v>0.6671482270204785</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6639443638901452</v>
+        <v>0.6646132619855143</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6622350846073368</v>
+        <v>0.6642648767106578</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6538670637393156</v>
+        <v>0.6567405791128313</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6502068350790871</v>
+        <v>0.6538670637393156</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6475524224982039</v>
+        <v>0.6502068350790871</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6445749669472194</v>
+        <v>0.6476233074955595</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6354694890917414</v>
+        <v>0.6445749669472194</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6320458294180811</v>
+        <v>0.6354694890917414</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6319201004461985</v>
+        <v>0.6320458294180811</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6312498305451593</v>
+        <v>0.6319201004461985</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6300131398853919</v>
+        <v>0.6312498305451593</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.629608416403745</v>
+        <v>0.6300131398853919</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6271451745174266</v>
+        <v>0.629608416403745</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6235848459570987</v>
+        <v>0.6271451745174266</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6207352916652356</v>
+        <v>0.6114539213261736</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6114539213261736</v>
+        <v>0.6100246724704539</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6100246724704539</v>
+        <v>0.6079147788447228</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6030599648552943</v>
+        <v>0.6042011690507967</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5869589718312236</v>
+        <v>0.591155202950532</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5763820487543005</v>
+        <v>0.5869589718312236</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5749894242847531</v>
+        <v>0.582681731977061</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5746503976224948</v>
+        <v>0.5816027895519649</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5737012736470553</v>
+        <v>0.5763820487543005</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5716455459408749</v>
+        <v>0.5746503976224948</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5714804332757621</v>
+        <v>0.5737012736470553</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5714804332757621</v>
+        <v>0.5716455459408749</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5701420280912033</v>
+        <v>0.5714804332757621</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5647475670971946</v>
+        <v>0.5714804332757621</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5644097262050551</v>
+        <v>0.5671790031824768</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5635004858727379</v>
+        <v>0.565868523817699</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5510689003642288</v>
+        <v>0.5644097262050551</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5504593109314082</v>
+        <v>0.5635004858727379</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5484983939475694</v>
+        <v>0.5527718982210736</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5385453128406417</v>
+        <v>0.5513658256611549</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5358210331709581</v>
+        <v>0.5510689003642288</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5336289685012203</v>
+        <v>0.5504593109314082</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5333245406515439</v>
+        <v>0.5281287254786506</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5256750753276322</v>
+        <v>0.5249514123971932</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.525623923646628</v>
+        <v>0.5238572231525516</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5249514123971932</v>
+        <v>0.5201878156369908</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.5244613199104953</v>
+        <v>0.5201294181521221</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.5212288192009169</v>
+        <v>0.5179827676353244</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.5192363257387274</v>
+        <v>0.5131639359946305</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5161649154602441</v>
+        <v>0.5115440180464197</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.5131639359946305</v>
+        <v>0.5110890084612609</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5110890084612609</v>
+        <v>0.5085225578178867</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.5085225578178867</v>
+        <v>0.5065203933157223</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5065203933157223</v>
+        <v>0.5060805553758843</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.5060805553758843</v>
+        <v>0.496273252949804</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.496273252949804</v>
+        <v>0.4946133406623614</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.4859789689281437</v>
+        <v>0.4821336689289977</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.4821336689289977</v>
+        <v>0.4807109683264326</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.4722468676960432</v>
+        <v>0.4782866612358361</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.4703963677686198</v>
+        <v>0.4722468676960432</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.463887598759851</v>
+        <v>0.4703963677686198</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.4618657267153543</v>
+        <v>0.4656973274926566</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.4569938931164428</v>
+        <v>0.4603910952633474</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.4557944098974314</v>
+        <v>0.4569938931164428</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4495057199548949</v>
+        <v>0.4537711660472643</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4437957248218232</v>
+        <v>0.4522979064009276</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.443655480450809</v>
+        <v>0.4514880325141311</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.4435254665481714</v>
+        <v>0.4495057199548949</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.4429716283023228</v>
+        <v>0.4473716203943254</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.4429716283023228</v>
+        <v>0.4468474116970393</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.4429716283023228</v>
+        <v>0.443655480450809</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.4416121751611954</v>
+        <v>0.4433918394914669</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.4404198272151563</v>
+        <v>0.4429716283023228</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4401570024331005</v>
+        <v>0.4429716283023228</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4382091105813626</v>
+        <v>0.4429716283023228</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.4381137685176943</v>
+        <v>0.4413188967228232</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.434203394075646</v>
+        <v>0.4404198272151563</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4331354292350567</v>
+        <v>0.4388634124859629</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4325309785799987</v>
+        <v>0.4382091105813626</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.4290811658764946</v>
+        <v>0.4368044828535029</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4290811658764946</v>
+        <v>0.4325309785799987</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.4285122903076195</v>
+        <v>0.4290811658764946</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.4214620221996592</v>
+        <v>0.4290811658764946</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4214476668968414</v>
+        <v>0.4285122903076195</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.4141739420043387</v>
+        <v>0.4277931376653896</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4139055515210153</v>
+        <v>0.4224308717262009</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.4111510191001941</v>
+        <v>0.4214620221996592</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.4108591101544394</v>
+        <v>0.4141739420043387</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.4095542027692147</v>
+        <v>0.4137553592045338</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4091497084450375</v>
+        <v>0.4084037663529414</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.3982147943144216</v>
+        <v>0.4030413403174382</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.3973642716596002</v>
+        <v>0.4018618950769071</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.3916467896694942</v>
+        <v>0.4005569123522414</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.389761831364853</v>
+        <v>0.3973642716596002</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.3888291636052621</v>
+        <v>0.3946053695511511</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.3862656480609767</v>
+        <v>0.3945499762265265</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.3861144104097392</v>
+        <v>0.3917877434869186</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.3848642716596</v>
+        <v>0.389761831364853</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.3844790305280508</v>
+        <v>0.3862656480609767</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3817530015293977</v>
+        <v>0.3861144104097392</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.380680954976284</v>
+        <v>0.3848642716596</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.3795080893803413</v>
+        <v>0.3844790305280508</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.3788575445261293</v>
+        <v>0.380680954976284</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.376286738082066</v>
+        <v>0.3795080893803413</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.3749529066294568</v>
+        <v>0.3788575445261293</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.3734345908577483</v>
+        <v>0.3777476169467922</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.3731408455130978</v>
+        <v>0.376286738082066</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.3722531114522867</v>
+        <v>0.3731408455130978</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.3651895019848306</v>
+        <v>0.3731307280538854</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.36393102253065</v>
+        <v>0.3651895019848306</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.3631332249285535</v>
+        <v>0.36393102253065</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3625102368055653</v>
+        <v>0.3631332249285535</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3590293693823901</v>
+        <v>0.3565791526281727</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3536205727465158</v>
+        <v>0.3522912890866174</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.3522912890866174</v>
+        <v>0.3513370616900824</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.3489626732580016</v>
+        <v>0.3505370604093123</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.3484159977113261</v>
+        <v>0.3489626732580016</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.3466608084561367</v>
+        <v>0.3484159977113261</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.3452982820936108</v>
+        <v>0.3476595758281611</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.3443990210981962</v>
+        <v>0.3466608084561367</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.3414529287290267</v>
+        <v>0.3452982820936108</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3403169184855039</v>
+        <v>0.3443990210981962</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3394043049043849</v>
+        <v>0.3414529287290267</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3393353347845101</v>
+        <v>0.3406173860665613</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3384209713701465</v>
+        <v>0.3394043049043849</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3332165980662256</v>
+        <v>0.3289118907072188</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3294964400191447</v>
+        <v>0.3282361775315059</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3289118907072188</v>
+        <v>0.3278711045702793</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.3285889113460769</v>
+        <v>0.3195587438540723</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.3282361775315059</v>
+        <v>0.3181026678787664</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3221,7 +3221,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.32804570455287</v>
+        <v>0.3163136669099014</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3278711045702793</v>
+        <v>0.315712590007919</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3205065140326127</v>
+        <v>0.3150197998920519</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.3195587438540723</v>
+        <v>0.3127960620913914</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.3163136669099014</v>
+        <v>0.3127447245400528</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.315712590007919</v>
+        <v>0.3077513738736257</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3150197998920519</v>
+        <v>0.3064805670032718</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.3127960620913914</v>
+        <v>0.3041424670690174</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.3127447245400528</v>
+        <v>0.3033263651216935</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3077513738736257</v>
+        <v>0.3033263651216935</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3033263651216935</v>
+        <v>0.300962062757391</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3033263651216935</v>
+        <v>0.3006342271413922</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.300962062757391</v>
+        <v>0.2976213706440747</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.2976213706440747</v>
+        <v>0.2960154602146357</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.2917419559411314</v>
+        <v>0.2960154602146357</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2917419559411314</v>
+        <v>0.2916597041054854</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.2916597041054854</v>
+        <v>0.2903726521679806</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.2903726521679806</v>
+        <v>0.2888255881209165</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.2888255881209165</v>
+        <v>0.2885745571006553</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.2885745571006553</v>
+        <v>0.2883867107589626</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.2883867107589626</v>
+        <v>0.2856204599157888</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.2856204599157888</v>
+        <v>0.2848671533932519</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.2848671533932519</v>
+        <v>0.2837612080565366</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.2837612080565366</v>
+        <v>0.28311335163945</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.28311335163945</v>
+        <v>0.2809843987871103</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.268820593115922</v>
+        <v>0.2700190090261743</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.2683493762985518</v>
+        <v>0.268820593115922</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.2626231423766163</v>
+        <v>0.2683493762985518</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.254391523568074</v>
+        <v>0.2535526345787331</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.2535526345787331</v>
+        <v>0.2523939641892929</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2523939641892929</v>
+        <v>0.2523667321202057</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2507646185673302</v>
+        <v>0.25011801929457</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2228319169578605</v>
+        <v>0.2227832970786259</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2227832970786259</v>
+        <v>0.2224859448581964</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3861,7 +3861,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2224859448581964</v>
+        <v>0.219823756619085</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.219823756619085</v>
+        <v>0.2189749872584681</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2151288334123143</v>
+        <v>0.2164216605476041</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.199538699795567</v>
+        <v>0.1959672712241389</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.16753201555472</v>
+        <v>0.1699208166202899</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1672985040938331</v>
+        <v>0.16753201555472</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.166657478452807</v>
+        <v>0.1672985040938331</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1654261283020719</v>
+        <v>0.166657478452807</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1564593432546721</v>
+        <v>0.1580161198114494</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1564593432546717</v>
+        <v>0.1564593432546721</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1558182525177256</v>
+        <v>0.1564593432546717</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4165,7 +4165,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1500490868444153</v>
+        <v>0.1522146939873992</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4173,7 +4173,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1468439586392876</v>
+        <v>0.1500490868444153</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1380840753601733</v>
+        <v>0.1468439586392876</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.130238342033671</v>
+        <v>0.145776383052481</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.08992555652857703</v>
+        <v>0.08842877065455923</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.08842877065455923</v>
+        <v>0.0821600848207984</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.07788658054729414</v>
+        <v>0.07710504370806426</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.03269752814670346</v>
+        <v>0.03298612843530346</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.01780978949081868</v>
+        <v>0.02292754319661583</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.008924719097637812</v>
+        <v>0.02078501938912547</v>
       </c>
     </row>
     <row r="415" spans="1:2">
